--- a/data/20250517_experiment_1.xlsx
+++ b/data/20250517_experiment_1.xlsx
@@ -268,27 +268,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
-        <v>3000.0</v>
+        <v>4000.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>3250.0</v>
+        <v>4500.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>3500.0</v>
+        <v>5000.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>3750.0</v>
+        <v>5500.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>4000.0</v>
+        <v>6000.0</v>
       </c>
     </row>
   </sheetData>
